--- a/input/reg_childcarecost.xlsx
+++ b/input/reg_childcarecost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB050EB6-F2E7-4802-9B7F-6DE0603809D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63190708-4E64-43F9-92C2-E6934F952E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{340E7E3D-052B-4B5E-9AED-F19FDC9FFE2D}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{340E7E3D-052B-4B5E-9AED-F19FDC9FFE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
   <si>
     <t>Purpose:</t>
   </si>
@@ -183,18 +183,35 @@
   <si>
     <t>least squares regression coefficients describing the scale of childcare costs for the population subgroup incurring some cost</t>
   </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,14 +231,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BDD84519-0C29-4104-BBC4-6E538C6E789A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCC908-06A0-4D0E-870F-9C33F376D6B8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,18 +594,26 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4908,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1C2FB7-24E7-4EED-B8B4-6BEC3D4AEE9C}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>

--- a/input/reg_childcarecost.xlsx
+++ b/input/reg_childcarecost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63190708-4E64-43F9-92C2-E6934F952E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A202D41-1A3C-4889-8F9C-F2FF196DE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{340E7E3D-052B-4B5E-9AED-F19FDC9FFE2D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{340E7E3D-052B-4B5E-9AED-F19FDC9FFE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,9 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCC908-06A0-4D0E-870F-9C33F376D6B8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -626,9 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F6B67-F044-4186-B2FF-5ED7C0833841}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4936,9 +4932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1C2FB7-24E7-4EED-B8B4-6BEC3D4AEE9C}">
   <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
